--- a/Projects/CCNAYARMX/Data/CCNayar_POS_Options_v7.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayar_POS_Options_v7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="POS Options" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'POS Options'!$A$1:$Z$10</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'POS Options'!$A$1:$Z$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'POS Options'!$A$1:$Z$10</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="139">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -237,205 +238,208 @@
     <t xml:space="preserve">¿Tiene Copete y Cenefas-Hidratación?</t>
   </si>
   <si>
+    <t xml:space="preserve">Hidratacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION cenefa ciel1,HIDRATACION copete hidratacion 33x25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION cenefa ciel2,HIDRATACION copete hidratacion 33x25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION cenefa ciel3,HIDRATACION copete hidratacion 33x25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION cenefa ciel4,HIDRATACION copete hidratacion 33x25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION CENEFA 1 GRANDE 40X5 CM,HIDRATACION copete hidratacion 33x25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION CENEFA 2 GRANDE 40X5 CM,HIDRATACION copete hidratacion 33x25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION CENEFA 3 GRANDE 40X5 CM,HIDRATACION copete hidratacion 33x25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION cenefa ciel1,HIDRATACION copete hidratacion 40x30 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION cenefa ciel2,HIDRATACION copete hidratacion 40x30 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION cenefa ciel3,HIDRATACION copete hidratacion 40x30 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION cenefa ciel4,HIDRATACION copete hidratacion 40x30 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION CENEFA 1 GRANDE 40X5 CM,HIDRATACION copete hidratacion 40x30 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION CENEFA 2 GRANDE 40X5 CM,HIDRATACION copete hidratacion 40x30 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION CENEFA 3 GRANDE 40X5 CM,HIDRATACION copete hidratacion 40x30 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciel_NR_1_L,Ciel_NR_600_ml,Ciel_NR_1.5_L,Ciel_Natural_NR_1_L,Ciel Other AGUA,Ciel_Mineral_NR_600_ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciel_Exprim_Jamaica_NR_600_ml,Ciel_Exprim_Limon_NR_600_ml,Ciel_Exprim_Fresa_NR_600_ml,Ciel_Exprim_Limon_NR_1.5_L,Ciel_Exprim_Jamaica_NR_1.5_L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powerade_Frutas_NR_1_L,Powerade_Limon_NR_1_L,Powerade_Mandarina_NR_1_L,Powerade_Moras_NR_1_L,Powerade_Uva_NR_1_L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION cenefa ciel1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION cenefa ciel2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION cenefa ciel3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION cenefa ciel4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION CENEFA 1 GRANDE 40X5 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION CENEFA 2 GRANDE 40X5 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRATACION CENEFA 3 GRANDE 40X5 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutricion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION CENEFA 1 GRANDE 40X5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION CENEFA 2 GRANDE 40X5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION 3 CENEFA GRANDE 40X5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION 4 CHICO 40X3.5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION 5 CHICO 40X8.5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION 6 CHICO 55X3.5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENEFA NUTRICION 3 CHICO 28X5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENEFA NUTRICION 2 CHICO 28X5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cenefa Nutricion 1,NUTRICION COPETE CHICO 28X30 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION CENEFA 1 GRANDE 40X5 CM,Copete Nutricion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION CENEFA 2 GRANDE 40X5 CM,Copete Nutricion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION 3 CENEFA GRANDE 40X5 CM,Copete Nutricion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION 4 CHICO 40X3.5 CM,Copete Nutricion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION 5 CHICO 40X8.5 CM,Copete Nutricion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION 6 CHICO 55X3.5 CM,Copete Nutricion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENEFA NUTRICION 3 CHICO 28X5 CM,Copete Nutricion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENEFA NUTRICION 2 CHICO 28X5 CM,Copete Nutricion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cenefa Nutricion 1,Copete Nutricion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del_Valle_NC_Manzana_NRV_413_ml,Del_Valle_Reserva_MznaArandano_NR_1_L,Del_Valle_Mango_Lata_453_ml,Del_Valle_Mango_NRV_413_ml,Del_Valle_Durazno_Lata_453_ml,Del_Valle_Durazno_NRV_413_ml,Del Valle Juice Other,Del_Valle_Mango_NRT_250_ml,Del_Valle_Durazno_Lata_335_ml,Del_Valle_Manzana_NRV_413_ml,Del_Valle_Mango_Lata_335_ml,Del_Valle_Manzana_Lata_335_ml,Del_Valle_Manzana_Roja_NRT_250_ml,Del_Valle_Durazno_NRT_250_ml,Del_Valle_Pina_Lata_335_ml,Del_Valle_NRV_413_ml,Del_Valle_Reserva_Mzna_Granada_NR_1_L,Del_Valle_Guayaba_NRV_413_ml,Del_Valle_Guayaba_Lata_453_ml,Del_Valle_Guayaba_Lata_335_ml,Del_Valle_Durazno_NRT_946_ml,Del_Valle_Manzana_NRT_946_ml,Del_Valle_NC_Manzana_NRT_946_ml,Del_Valle_Mango_NRT_946_ml,Del_Valle_Pina_NRT_946_ml,Del_Valle_Naranja_NRT_946_ml,Del Valle Antiox Juice Manzana Con Extracto De Granada Bottle 237 ml,Del Valle Antiox Juice Manzana Con Extracto De Arandano Bottle 237 ml,Del_Valle_Manzana_TP_250_ml,Del_Valle_Lata_335_ml,Del_Valle_NRT_250_ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa_Clara_LS_Choco_NRT_200_ml,Santa_Clara_Deslactosada_Adic_NRT_1_L,Santa_Clara_Deslactosada_Light_NRT_1_L,Santa_Clara_Entera_NRT_1_L,Santa_Clara_Entera_Fresa_NRT_200_ml,Santa_Clara_Light_Ultrapasteu_NRT_1_L,Santa_Clara_LSD_Vainilla_NRT_200_ml,Santa Clara Milk Other,Santa_Clara_Entera_NRT_750_ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ades Juice Other,Ades_Naranja_NRT_200_ml,Ades_Uva_NRT_200_ml,Ades De Con Proteina Soya Tetra 946Ml,Ades Juice Manzana Soya Con Vitaminas Y Zinc Tetra 946 ml,Ades Milk Coco Sin Azucares Anadidos Contiene Calcio Tetra 946 ml,Ades Milk Almendra Sin Azucares Anadidos Contiene Calcio Tetra 946 ml,Ades Milk Other,Ades Milk Empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION CENEFA 1 GRANDE 40X5 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION CENEFA 2 GRANDE 40X5 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION 3 CENEFA GRANDE 40X5 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION 4 CHICO 40X3.5 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION 5 CHICO 40X8.5 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTRICION 6 CHICO 55X3.5 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENEFA NUTRICION 3 CHICO 28X5 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENEFA NUTRICION 2 CHICO 28X5 CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cenefa Nutricion 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_additional_attribute_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facings_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_facings_product_local_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All_Products_Required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_facings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment_Facings_Constraints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assortment_2&gt;Assortment_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hidratación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION cenefa ciel1,HIDRATACION copete hidratacion 33x25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION cenefa ciel2,HIDRATACION copete hidratacion 33x25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION cenefa ciel3,HIDRATACION copete hidratacion 33x25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION cenefa ciel4,HIDRATACION copete hidratacion 33x25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION CENEFA 1 GRANDE 40X5 CM,HIDRATACION copete hidratacion 33x25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION CENEFA 2 GRANDE 40X5 CM,HIDRATACION copete hidratacion 33x25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION CENEFA 3 GRANDE 40X5 CM,HIDRATACION copete hidratacion 33x25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION cenefa ciel1,HIDRATACION copete hidratacion 40x30 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION cenefa ciel2,HIDRATACION copete hidratacion 40x30 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION cenefa ciel3,HIDRATACION copete hidratacion 40x30 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION cenefa ciel4,HIDRATACION copete hidratacion 40x30 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION CENEFA 1 GRANDE 40X5 CM,HIDRATACION copete hidratacion 40x30 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION CENEFA 2 GRANDE 40X5 CM,HIDRATACION copete hidratacion 40x30 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION CENEFA 3 GRANDE 40X5 CM,HIDRATACION copete hidratacion 40x30 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciel_NR_1_L,Ciel_NR_600_ml,Ciel_NR_1.5_L,Ciel_Natural_NR_1_L,Ciel Other AGUA,Ciel_Mineral_NR_600_ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ciel_Exprim_Jamaica_NR_600_ml,Ciel_Exprim_Limon_NR_600_ml,Ciel_Exprim_Fresa_NR_600_ml,Ciel_Exprim_Limon_NR_1.5_L,Ciel_Exprim_Jamaica_NR_1.5_L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powerade_Frutas_NR_1_L,Powerade_Limon_NR_1_L,Powerade_Mandarina_NR_1_L,Powerade_Moras_NR_1_L,Powerade_Uva_NR_1_L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION cenefa ciel1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION cenefa ciel2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION cenefa ciel3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION cenefa ciel4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION CENEFA 1 GRANDE 40X5 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION CENEFA 2 GRANDE 40X5 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRATACION CENEFA 3 GRANDE 40X5 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutricion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION CENEFA 1 GRANDE 40X5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION CENEFA 2 GRANDE 40X5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION 3 CENEFA GRANDE 40X5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION 4 CHICO 40X3.5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION 5 CHICO 40X8.5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION 6 CHICO 55X3.5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENEFA NUTRICION 3 CHICO 28X5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENEFA NUTRICION 2 CHICO 28X5 CM,NUTRICION COPETE CHICO 28X30 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cenefa Nutricion 1,NUTRICION COPETE CHICO 28X30 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION CENEFA 1 GRANDE 40X5 CM,Copete Nutricion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION CENEFA 2 GRANDE 40X5 CM,Copete Nutricion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION 3 CENEFA GRANDE 40X5 CM,Copete Nutricion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION 4 CHICO 40X3.5 CM,Copete Nutricion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION 5 CHICO 40X8.5 CM,Copete Nutricion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION 6 CHICO 55X3.5 CM,Copete Nutricion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENEFA NUTRICION 3 CHICO 28X5 CM,Copete Nutricion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENEFA NUTRICION 2 CHICO 28X5 CM,Copete Nutricion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cenefa Nutricion 1,Copete Nutricion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Del_Valle_NC_Manzana_NRV_413_ml,Del_Valle_Reserva_MznaArandano_NR_1_L,Del_Valle_Mango_Lata_453_ml,Del_Valle_Mango_NRV_413_ml,Del_Valle_Durazno_Lata_453_ml,Del_Valle_Durazno_NRV_413_ml,Del Valle Juice Other,Del_Valle_Mango_NRT_250_ml,Del_Valle_Durazno_Lata_335_ml,Del_Valle_Manzana_NRV_413_ml,Del_Valle_Mango_Lata_335_ml,Del_Valle_Manzana_Lata_335_ml,Del_Valle_Manzana_Roja_NRT_250_ml,Del_Valle_Durazno_NRT_250_ml,Del_Valle_Pina_Lata_335_ml,Del_Valle_NRV_413_ml,Del_Valle_Reserva_Mzna_Granada_NR_1_L,Del_Valle_Guayaba_NRV_413_ml,Del_Valle_Guayaba_Lata_453_ml,Del_Valle_Guayaba_Lata_335_ml,Del_Valle_Durazno_NRT_946_ml,Del_Valle_Manzana_NRT_946_ml,Del_Valle_NC_Manzana_NRT_946_ml,Del_Valle_Mango_NRT_946_ml,Del_Valle_Pina_NRT_946_ml,Del_Valle_Naranja_NRT_946_ml,Del Valle Antiox Juice Manzana Con Extracto De Granada Bottle 237 ml,Del Valle Antiox Juice Manzana Con Extracto De Arandano Bottle 237 ml,Del_Valle_Manzana_TP_250_ml,Del_Valle_Lata_335_ml,Del_Valle_NRT_250_ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa_Clara_LS_Choco_NRT_200_ml,Santa_Clara_Deslactosada_Adic_NRT_1_L,Santa_Clara_Deslactosada_Light_NRT_1_L,Santa_Clara_Entera_NRT_1_L,Santa_Clara_Entera_Fresa_NRT_200_ml,Santa_Clara_Light_Ultrapasteu_NRT_1_L,Santa_Clara_LSD_Vainilla_NRT_200_ml,Santa Clara Milk Other,Santa_Clara_Entera_NRT_750_ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ades Juice Other,Ades_Naranja_NRT_200_ml,Ades_Uva_NRT_200_ml,Ades De Con Proteina Soya Tetra 946Ml,Ades Juice Manzana Soya Con Vitaminas Y Zinc Tetra 946 ml,Ades Milk Coco Sin Azucares Anadidos Contiene Calcio Tetra 946 ml,Ades Milk Almendra Sin Azucares Anadidos Contiene Calcio Tetra 946 ml,Ades Milk Other,Ades Milk Empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION CENEFA 1 GRANDE 40X5 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION CENEFA 2 GRANDE 40X5 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION 3 CENEFA GRANDE 40X5 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION 4 CHICO 40X3.5 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION 5 CHICO 40X8.5 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUTRICION 6 CHICO 55X3.5 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENEFA NUTRICION 3 CHICO 28X5 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENEFA NUTRICION 2 CHICO 28X5 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cenefa Nutricion 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store_additional_attribute_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facings_target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_facings_product_local_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All_Products_Required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max_facings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment_Facings_Constraints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment_2&gt;Assortment_1</t>
   </si>
   <si>
     <t xml:space="preserve">Ciel_Mineral_NR_600_ml</t>
@@ -448,7 +452,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -478,6 +482,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -562,7 +572,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -596,19 +606,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -619,11 +625,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -710,29 +712,29 @@
   </sheetPr>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.7407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.7666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="33.6111111111111"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="37.6296296296296"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="29.4"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="22" min="12" style="2" width="29.6925925925926"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="126.411111111111"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="152.281481481481"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="96.6222222222222"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="112.985185185185"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.0148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.0851851851852"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.8444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="34.3962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="33.9074074074074"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="25.4777777777778"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="38.5111111111111"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="27.537037037037"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="30.0851851851852"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="22" min="12" style="2" width="30.3777777777778"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="129.644444444444"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="156.203703703704"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="99.0703703703704"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="115.925925925926"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="11.8555555555556"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,38 +858,38 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -910,42 +912,42 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>56</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -968,16 +970,16 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1016,14 +1018,14 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="8" t="s">
+      <c r="W5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="124.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -1060,16 +1062,16 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="8" t="s">
+      <c r="W6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="X6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="62.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -1126,22 +1128,22 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="X7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Y7" s="8" t="s">
+      <c r="Y7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="Z7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1180,16 +1182,16 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="9" t="s">
+      <c r="W8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="X8" s="8" t="s">
+      <c r="X8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Y8" s="8" t="s">
+      <c r="Y8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="Z8" s="9"/>
+      <c r="Z8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="140.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
@@ -1256,16 +1258,16 @@
         <v>113</v>
       </c>
       <c r="V9" s="5"/>
-      <c r="W9" s="8" t="s">
+      <c r="W9" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="X9" s="8" t="s">
+      <c r="X9" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Y9" s="8" t="s">
+      <c r="Y9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="Z9" s="9"/>
+      <c r="Z9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="140.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -1314,16 +1316,16 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="8" t="s">
+      <c r="W10" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="X10" s="8" t="s">
+      <c r="X10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="8" t="s">
+      <c r="Y10" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="Z10" s="9"/>
+      <c r="Z10" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Z10"/>
@@ -1345,46 +1347,46 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.437037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0814814814815"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.0444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.4555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2185185185185"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.537037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.162962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.2407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1401,12 +1403,12 @@
       <c r="D2" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -1421,12 +1423,12 @@
       <c r="D3" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -1441,12 +1443,12 @@
       <c r="D4" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -1461,12 +1463,12 @@
       <c r="D5" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
@@ -1481,10 +1483,10 @@
       <c r="D6" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -1499,10 +1501,10 @@
       <c r="D7" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
@@ -1517,10 +1519,10 @@
       <c r="D8" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
@@ -1535,10 +1537,10 @@
       <c r="D9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
@@ -1553,10 +1555,10 @@
       <c r="D10" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
@@ -1571,10 +1573,10 @@
       <c r="D11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
@@ -1589,9 +1591,9 @@
       <c r="D12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="6" t="s">
         <v>136</v>
       </c>
@@ -1609,9 +1611,9 @@
       <c r="D13" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="6" t="s">
         <v>136</v>
       </c>
@@ -1629,9 +1631,9 @@
       <c r="D14" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="6" t="s">
         <v>136</v>
       </c>
@@ -1649,16 +1651,16 @@
       <c r="D15" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>132</v>
@@ -1669,18 +1671,18 @@
       <c r="D16" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="15"/>
+      <c r="E16" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="13"/>
       <c r="G16" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>132</v>
@@ -1691,18 +1693,18 @@
       <c r="D17" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="15"/>
+      <c r="E17" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="13"/>
       <c r="G17" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>134</v>
@@ -1713,18 +1715,18 @@
       <c r="D18" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="15"/>
+      <c r="E18" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="13"/>
       <c r="G18" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>134</v>
@@ -1735,14 +1737,14 @@
       <c r="D19" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="15"/>
+      <c r="E19" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="13"/>
       <c r="G19" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -1757,10 +1759,10 @@
       <c r="D20" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -1775,10 +1777,10 @@
       <c r="D21" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -1793,10 +1795,10 @@
       <c r="D22" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
@@ -1811,10 +1813,10 @@
       <c r="D23" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CCNAYARMX/Data/CCNayar_POS_Options_v7.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayar_POS_Options_v7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="POS Options" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'POS Options'!$A$1:$Z$10</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'POS Options'!$A$1:$Z$10</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'POS Options'!$A$1:$Z$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'POS Options'!$A$1:$Z$10</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="138">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -437,9 +438,6 @@
   </si>
   <si>
     <t xml:space="preserve">Assortment_2&gt;Assortment_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hidratación</t>
   </si>
   <si>
     <t xml:space="preserve">Ciel_Mineral_NR_600_ml</t>
@@ -484,10 +482,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -613,15 +612,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -712,29 +711,29 @@
   </sheetPr>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.0148148148148"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.0851851851852"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.8444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="34.3962962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="33.9074074074074"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="25.4777777777778"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="38.5111111111111"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="27.537037037037"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="30.0851851851852"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.6148148148148"/>
-    <col collapsed="false" hidden="false" max="22" min="12" style="2" width="30.3777777777778"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="129.644444444444"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="156.203703703704"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="99.0703703703704"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="115.925925925926"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="21.6555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="11.8555555555556"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.2888888888889"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.8666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="42.8222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="35.2777777777778"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="34.6888888888889"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="26.0666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="39.4925925925926"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="28.1259259259259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="30.8666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.3"/>
+    <col collapsed="false" hidden="false" max="22" min="12" style="2" width="31.162962962963"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="132.881481481481"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="160.218518518519"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="101.618518518519"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="118.866666666667"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="22.2444444444444"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="12.1518518518519"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,7 +1142,7 @@
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1347,46 +1346,45 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2185185185185"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.537037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.162962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8296296296296"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7740740740741"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7555555555556"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.2407407407407"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.0037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9444444444444"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.6111111111111"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.262962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1481481481481"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.0222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1658,9 +1656,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>137</v>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>132</v>
@@ -1672,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="6" t="n">
@@ -1680,9 +1678,9 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>137</v>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>132</v>
@@ -1694,7 +1692,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="6" t="n">
@@ -1702,9 +1700,9 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>137</v>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>134</v>
@@ -1716,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="6" t="n">
@@ -1724,9 +1722,9 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>137</v>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>134</v>
@@ -1738,7 +1736,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="6" t="n">
